--- a/res/Action_Log_Template.xlsx
+++ b/res/Action_Log_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\java-workspace\PDFMerge\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\progetti\pdf-merge\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C18B9A-C35B-477F-A7E0-44E1ED74A115}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CED2093-F233-4862-A6B4-6C2CC7D6AD8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2085" windowWidth="23310" windowHeight="13140" xr2:uid="{C83C4A33-EE40-418E-B784-13CDDAFA7704}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C83C4A33-EE40-418E-B784-13CDDAFA7704}"/>
   </bookViews>
   <sheets>
     <sheet name="Action Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="27">
   <si>
     <t>Document Number</t>
   </si>
@@ -57,12 +57,42 @@
     <t>A01</t>
   </si>
   <si>
+    <t>Comments-Merge Tool</t>
+  </si>
+  <si>
+    <t>Signature deleted at page 1</t>
+  </si>
+  <si>
+    <t>Sig</t>
+  </si>
+  <si>
+    <t>Document discarded: null</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Document revisioned by ciro.aiello discarded. Different number of pages.</t>
+  </si>
+  <si>
+    <t>a.a.gambardella</t>
+  </si>
+  <si>
+    <t>Added a comment at page 1</t>
+  </si>
+  <si>
+    <t>prova</t>
+  </si>
+  <si>
+    <t>pannello evidenziato</t>
+  </si>
+  <si>
+    <t>control arrow</t>
+  </si>
+  <si>
     <t>ciro.aiello</t>
   </si>
   <si>
-    <t>Added a comment at page 1</t>
-  </si>
-  <si>
     <t>Check if SIL Classification is correct</t>
   </si>
   <si>
@@ -72,7 +102,7 @@
     <t>Update the chapter / table</t>
   </si>
   <si>
-    <t>a.a.gambardella</t>
+    <t>test_attachment.txt</t>
   </si>
   <si>
     <t>Wrong values</t>
@@ -81,39 +111,7 @@
     <t>shall be lower than 80%, not 70%</t>
   </si>
   <si>
-    <t>Added a comment at page 0</t>
-  </si>
-  <si>
-    <t>Replied to ciro.aiello on comment 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reply Test-</t>
-  </si>
-  <si>
-    <t>Set the status on comment 4</t>
-  </si>
-  <si>
-    <t>Completed set by ciro.aiello</t>
-  </si>
-  <si>
-    <t>Set the status on comment 3</t>
-  </si>
-  <si>
-    <t>Accepted set by ciro.aiello</t>
-  </si>
-  <si>
-    <t>Set the status on comment 2</t>
-  </si>
-  <si>
-    <t>Rejected set by ciro.aiello</t>
-  </si>
-  <si>
-    <t>Replied to ciro.aiello on comment 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test-</t>
+    <t>Should be IEC62508</t>
   </si>
 </sst>
 </file>
@@ -121,7 +119,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +146,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+      <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -182,13 +216,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,32 +576,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5E4839-1685-448B-82E4-0DD8E159D243}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="21.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.81640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.7265625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -580,7 +620,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="n">
         <v>1.0</v>
       </c>
@@ -599,7 +639,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="n">
         <v>2.0</v>
       </c>
@@ -607,20 +647,20 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -632,141 +672,104 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
